--- a/data/trans_dic/IP16A03-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP16A03-Edad-trans_dic.xlsx
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,45%</t>
+          <t>6,62%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,64%</t>
+          <t>1,55%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,58%</t>
+          <t>6,7%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,32%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>4,05%</t>
+          <t>4,16%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>3,26%</t>
+          <t>7,23%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>2,06%</t>
+          <t>1,58%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>2,19%</t>
+          <t>0,78%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>5,38%</t>
+          <t>5,55%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>2,51%</t>
+          <t>4,07%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>2,86%</t>
+          <t>4,06%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>3,33%</t>
+          <t>0,4%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,44; 15,34</t>
+          <t>1,7; 16,26</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,38</t>
+          <t>0,0; 7,72</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,9</t>
+          <t>1,71; 15,54</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,62; 9,95</t>
+          <t>0; 2,66</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,17; 11,07</t>
+          <t>0,0; 12,67</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,3</t>
+          <t>2,6; 15,52</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,77</t>
+          <t>0,0; 6,48</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,41</t>
+          <t>0,0; 3,98</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,67; 10,65</t>
+          <t>2,03; 11,11</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,77; 6,65</t>
+          <t>1,42; 8,2</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,75; 7,85</t>
+          <t>1,56; 9,16</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,35; 6,69</t>
+          <t>0,0; 2,26</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,62%</t>
+          <t>6,45%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,55%</t>
+          <t>1,64%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,7%</t>
+          <t>3,58%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,32%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>4,16%</t>
+          <t>4,05%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>7,23%</t>
+          <t>3,26%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,58%</t>
+          <t>2,06%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,78%</t>
+          <t>2,19%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>5,55%</t>
+          <t>5,38%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>4,07%</t>
+          <t>2,51%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>4,06%</t>
+          <t>2,86%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,4%</t>
+          <t>3,33%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,7; 16,26</t>
+          <t>2,44; 15,34</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,72</t>
+          <t>0,0; 8,38</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,71; 15,54</t>
+          <t>0,0; 12,9</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,66</t>
+          <t>1,62; 9,95</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,67</t>
+          <t>1,17; 11,07</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,6; 15,52</t>
+          <t>0,0; 11,3</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,48</t>
+          <t>0,0; 11,77</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,98</t>
+          <t>0,0; 7,41</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,03; 11,11</t>
+          <t>2,67; 10,65</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,42; 8,2</t>
+          <t>0,77; 6,65</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,56; 9,16</t>
+          <t>0,75; 7,85</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,26</t>
+          <t>1,35; 6,69</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP16A03-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP16A03-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>8,84%</t>
+          <t>2,45%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7,19%</t>
+          <t>11,91%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,8%</t>
+          <t>8,04%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,73%</t>
+          <t>8,07%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>8,56%</t>
+          <t>9,63%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,18%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,99%</t>
+          <t>3,36%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>3,0%</t>
+          <t>4,93%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>8,7%</t>
+          <t>6,0%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>5,26%</t>
+          <t>7,08%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>3,3%</t>
+          <t>5,56%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>4,58%</t>
+          <t>6,71%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,13; 16,73</t>
+          <t>0,0; 12,57</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,06; 15,43</t>
+          <t>5,09; 24,09</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,47; 14,01</t>
+          <t>2,44; 21,35</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,02; 15,68</t>
+          <t>1,82; 23,15</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,58; 16,39</t>
+          <t>3,58; 20,33</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,85; 8,88</t>
+          <t>0,0; 11,95</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,12</t>
+          <t>0,0; 11,12</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,98</t>
+          <t>0,0; 24,69</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,9; 14,2</t>
+          <t>2,34; 12,41</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,64; 10,08</t>
+          <t>2,89; 13,7</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,08; 7,34</t>
+          <t>2,17; 12,85</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,81; 10,98</t>
+          <t>2,05; 16,43</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,62%</t>
+          <t>12,14%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,55%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>6,7%</t>
+          <t>5,13%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,8%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>4,16%</t>
+          <t>4,72%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>7,23%</t>
+          <t>4,31%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>1,58%</t>
+          <t>1,67%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,78%</t>
+          <t>0,96%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>5,55%</t>
+          <t>8,73%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>4,07%</t>
+          <t>1,92%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>4,06%</t>
+          <t>3,42%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,4%</t>
+          <t>0,88%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,7; 16,26</t>
+          <t>6,2; 20,5</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,72</t>
+          <t>0; 2,04</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,71; 15,54</t>
+          <t>1,54; 13,94</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,66</t>
+          <t>0,0; 4,47</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,67</t>
+          <t>1,41; 11,47</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,6; 15,52</t>
+          <t>1,2; 10,83</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,48</t>
+          <t>0,0; 8,85</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,98</t>
+          <t>0,0; 4,9</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,03; 11,11</t>
+          <t>4,92; 13,9</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,42; 8,2</t>
+          <t>0,53; 4,55</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,56; 9,16</t>
+          <t>0,96; 8,35</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,26</t>
+          <t>0,0; 3,11</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,45%</t>
+          <t>2,91%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,64%</t>
+          <t>3,18%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,58%</t>
+          <t>1,77%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,32%</t>
+          <t>1,89%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>4,05%</t>
+          <t>2,79%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3,26%</t>
+          <t>9,52%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>2,06%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,19%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>5,38%</t>
+          <t>2,85%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>2,51%</t>
+          <t>6,46%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>2,86%</t>
+          <t>0,85%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>3,33%</t>
+          <t>2,05%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,44; 15,34</t>
+          <t>0,0; 12,01</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,38</t>
+          <t>0,0; 14,07</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,9</t>
+          <t>0,0; 9,21</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,62; 9,95</t>
+          <t>0,0; 10,73</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,17; 11,07</t>
+          <t>0,0; 16,87</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,3</t>
+          <t>2,41; 21,39</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,77</t>
+          <t>0; 3,61</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,41</t>
+          <t>0,0; 10,86</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,67; 10,65</t>
+          <t>0,0; 8,69</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,77; 6,65</t>
+          <t>2,45; 13,78</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,75; 7,85</t>
+          <t>0,0; 4,94</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,35; 6,69</t>
+          <t>0,0; 7,32</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,27%</t>
+          <t>7,25%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,84%</t>
+          <t>2,44%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5,04%</t>
+          <t>6,5%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,31%</t>
+          <t>4,57%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>5,81%</t>
+          <t>5,93%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>4,46%</t>
+          <t>2,5%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>1,87%</t>
+          <t>3,47%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>1,83%</t>
+          <t>1,38%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>6,59%</t>
+          <t>6,67%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>4,14%</t>
+          <t>2,47%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>3,43%</t>
+          <t>5,01%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>2,61%</t>
+          <t>3,04%</t>
         </is>
       </c>
     </row>
@@ -1144,68 +1144,216 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,47; 11,22</t>
+          <t>1,79; 16,79</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,67; 7,26</t>
+          <t>0,0; 10,85</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,51; 9,31</t>
+          <t>0,0; 20,48</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,54; 6,28</t>
+          <t>1,3; 11,32</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,11; 9,78</t>
+          <t>1,72; 15,96</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,27; 8,02</t>
+          <t>0,0; 10,83</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,55; 4,36</t>
+          <t>0,0; 17,04</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,52; 4,74</t>
+          <t>0,0; 7,23</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,42; 9,37</t>
+          <t>2,74; 12,82</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,62; 6,28</t>
+          <t>0,0; 8,96</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,74; 5,68</t>
+          <t>1,33; 13,25</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,47; 4,6</t>
+          <t>1,12; 7,28</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7,27%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>3,84%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>5,04%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>3,31%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>5,81%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>4,46%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1,87%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1,83%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>6,59%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>4,14%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>3,43%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>2,61%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>4,28; 11,63</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1,82; 7,54</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>2,66; 9,05</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>1,56; 6,69</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>3,23; 9,86</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>2,28; 7,88</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0,56; 4,88</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0,51; 4,52</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>4,26; 9,15</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>2,39; 6,39</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>1,95; 5,73</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>1,4; 4,45</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>

--- a/data/trans_dic/IP16A03-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP16A03-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,57</t>
+          <t>0,0; 11,34</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,09; 24,09</t>
+          <t>5,09; 24,53</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,44; 21,35</t>
+          <t>2,43; 20,95</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,82; 23,15</t>
+          <t>1,87; 25,55</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,58; 20,33</t>
+          <t>3,4; 20,61</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,95</t>
+          <t>0,0; 9,86</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,12</t>
+          <t>0,0; 10,53</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,69</t>
+          <t>0,0; 23,47</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,34; 12,41</t>
+          <t>2,36; 11,79</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,89; 13,7</t>
+          <t>2,77; 13,34</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2,17; 12,85</t>
+          <t>2,13; 12,72</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,05; 16,43</t>
+          <t>2,03; 15,52</t>
         </is>
       </c>
     </row>
@@ -864,7 +864,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,2; 20,5</t>
+          <t>6,42; 21,97</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -874,52 +874,52 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,54; 13,94</t>
+          <t>1,55; 13,26</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,47</t>
+          <t>0,0; 4,18</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,41; 11,47</t>
+          <t>1,42; 12,52</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,2; 10,83</t>
+          <t>1,24; 11,23</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,85</t>
+          <t>0,0; 8,76</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,9</t>
+          <t>0,0; 5,94</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,92; 13,9</t>
+          <t>4,83; 14,67</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,53; 4,55</t>
+          <t>0,42; 4,99</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,96; 8,35</t>
+          <t>0,93; 8,18</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,11</t>
+          <t>0,0; 3,13</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,01</t>
+          <t>0,0; 15,43</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,07</t>
+          <t>0,0; 15,95</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,21</t>
+          <t>0,0; 10,46</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,73</t>
+          <t>0,0; 9,58</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,87</t>
+          <t>0,0; 13,96</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,41; 21,39</t>
+          <t>2,33; 20,11</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1039,27 +1039,27 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,86</t>
+          <t>0,0; 9,75</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,69</t>
+          <t>0,0; 8,55</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,45; 13,78</t>
+          <t>2,46; 14,29</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,94</t>
+          <t>0,0; 4,35</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,32</t>
+          <t>0,0; 7,08</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,79; 16,79</t>
+          <t>1,81; 17,29</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,85</t>
+          <t>0,0; 12,17</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,48</t>
+          <t>0,0; 20,15</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,3; 11,32</t>
+          <t>1,15; 11,58</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,72; 15,96</t>
+          <t>1,71; 16,39</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,83</t>
+          <t>0,0; 12,62</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,04</t>
+          <t>0,0; 16,53</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,23</t>
+          <t>0,0; 6,39</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,74; 12,82</t>
+          <t>3,2; 13,23</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,96</t>
+          <t>0,0; 7,59</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,33; 13,25</t>
+          <t>1,32; 13,46</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,12; 7,28</t>
+          <t>1,05; 6,83</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,28; 11,63</t>
+          <t>4,28; 11,55</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,82; 7,54</t>
+          <t>1,83; 7,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,66; 9,05</t>
+          <t>2,27; 9,39</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,56; 6,69</t>
+          <t>1,71; 6,66</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,23; 9,86</t>
+          <t>3,1; 9,36</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,28; 7,88</t>
+          <t>2,26; 7,61</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,56; 4,88</t>
+          <t>0,55; 4,68</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,51; 4,52</t>
+          <t>0,52; 4,77</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,26; 9,15</t>
+          <t>4,51; 9,2</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>2,39; 6,39</t>
+          <t>2,48; 6,39</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,95; 5,73</t>
+          <t>1,96; 5,77</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,4; 4,45</t>
+          <t>1,33; 4,26</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP16A03-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP16A03-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -656,42 +656,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>9,63%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>2,0%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>3,36%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>4,79%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>2,45%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>11,91%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>8,04%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>8,07%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>9,63%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>2,0%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>3,36%</t>
-        </is>
-      </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>4,93%</t>
+          <t>8,64%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>6,71%</t>
+          <t>7,04%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,34</t>
+          <t>3,66; 22,22</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,09; 24,53</t>
+          <t>0,0; 9,91</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,43; 20,95</t>
+          <t>0,0; 12,21</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,87; 25,55</t>
+          <t>0,0; 21,7</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,4; 20,61</t>
+          <t>0,0; 12,2</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,86</t>
+          <t>5,11; 24,2</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,53</t>
+          <t>2,42; 21,32</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,47</t>
+          <t>1,79; 26,23</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,36; 11,79</t>
+          <t>2,12; 12,18</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,77; 13,34</t>
+          <t>2,81; 13,77</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2,13; 12,72</t>
+          <t>2,08; 11,41</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,03; 15,52</t>
+          <t>1,96; 17,44</t>
         </is>
       </c>
     </row>
@@ -796,42 +796,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>4,72%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>4,31%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>1,67%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0,9%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>12,14%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>5,13%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,8%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>4,72%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>4,31%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>1,67%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,96%</t>
+          <t>0,74%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,88%</t>
+          <t>0,82%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,42; 21,97</t>
+          <t>1,42; 12,47</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
+          <t>1,22; 10,53</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 9,18</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 5,2</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>6,39; 21,89</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>0; 2,04</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>1,55; 13,26</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 4,18</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>1,42; 12,52</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>1,24; 11,23</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,76</t>
+          <t>1,6; 13,84</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,94</t>
+          <t>0,0; 3,66</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,83; 14,67</t>
+          <t>5,07; 13,95</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,42; 4,99</t>
+          <t>0,55; 4,71</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,93; 8,18</t>
+          <t>0,84; 8,6</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,13</t>
+          <t>0,0; 2,87</t>
         </is>
       </c>
     </row>
@@ -936,42 +936,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>2,79%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>9,52%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>2,53%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>2,91%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>3,18%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>1,77%</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>1,89%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>2,79%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>9,52%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,24%</t>
+          <t>1,87%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>2,05%</t>
+          <t>2,16%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,43</t>
+          <t>0,0; 17,19</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,95</t>
+          <t>2,38; 19,42</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,46</t>
+          <t>0; 3,61</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,58</t>
+          <t>0,0; 12,61</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,96</t>
+          <t>0,0; 17,32</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,33; 20,11</t>
+          <t>0,0; 13,01</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,61</t>
+          <t>0,0; 7,85</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,75</t>
+          <t>0,0; 9,32</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,55</t>
+          <t>0,0; 8,86</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,46; 14,29</t>
+          <t>2,43; 14,84</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,35</t>
+          <t>0,0; 4,23</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,08</t>
+          <t>0,0; 7,47</t>
         </is>
       </c>
     </row>
@@ -1076,42 +1076,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>5,93%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>2,5%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>3,47%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0,99%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>7,25%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>2,44%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>6,5%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>4,57%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>5,93%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>2,5%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>3,47%</t>
-        </is>
-      </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>1,38%</t>
+          <t>4,52%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>3,04%</t>
+          <t>2,59%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,81; 17,29</t>
+          <t>1,71; 15,81</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,17</t>
+          <t>0,0; 12,09</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,15</t>
+          <t>0,0; 16,85</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,15; 11,58</t>
+          <t>0,0; 6,43</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,71; 16,39</t>
+          <t>1,83; 16,88</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,62</t>
+          <t>0,0; 9,99</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,53</t>
+          <t>0,0; 23,02</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,39</t>
+          <t>1,0; 11,14</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,2; 13,23</t>
+          <t>2,75; 13,14</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,59</t>
+          <t>0,0; 8,84</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,32; 13,46</t>
+          <t>1,28; 13,35</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,05; 6,83</t>
+          <t>0,79; 5,66</t>
         </is>
       </c>
     </row>
@@ -1216,42 +1216,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>5,81%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>4,46%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1,87%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1,63%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>7,27%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>3,84%</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="I12" s="2" t="inlineStr">
         <is>
           <t>5,04%</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>3,31%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>5,81%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>4,46%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>1,87%</t>
-        </is>
-      </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1,83%</t>
+          <t>3,34%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>2,61%</t>
+          <t>2,49%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,28; 11,55</t>
+          <t>3,11; 9,78</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,83; 7,57</t>
+          <t>2,27; 8,02</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,27; 9,39</t>
+          <t>0,55; 4,36</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,71; 6,66</t>
+          <t>0,45; 4,48</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,1; 9,36</t>
+          <t>4,47; 11,22</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,26; 7,61</t>
+          <t>1,67; 7,26</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,55; 4,68</t>
+          <t>2,51; 9,31</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,52; 4,77</t>
+          <t>1,57; 6,31</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,51; 9,2</t>
+          <t>4,42; 9,37</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>2,48; 6,39</t>
+          <t>2,62; 6,28</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,96; 5,77</t>
+          <t>1,74; 5,68</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,33; 4,26</t>
+          <t>1,36; 4,52</t>
         </is>
       </c>
     </row>
